--- a/Private Markets Data and Reporting.xlsx
+++ b/Private Markets Data and Reporting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akhil Vohra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1B05D6-A58E-4507-9E4A-672049B60FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752A6AC9-4A4B-47AC-A5C1-3C4947995ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="801" xr2:uid="{238E9E0E-8093-46D1-A2A6-06CF91D597C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="801" activeTab="4" xr2:uid="{238E9E0E-8093-46D1-A2A6-06CF91D597C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Funds" sheetId="1" r:id="rId1"/>
@@ -1138,7 +1138,18 @@
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B46F2A5A-C7CF-4586-AD9E-72DD6336D787}" name="tbl_Transactions" displayName="tbl_Transactions" ref="A1:K108" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:K108" xr:uid="{B46F2A5A-C7CF-4586-AD9E-72DD6336D787}"/>
+  <autoFilter ref="A1:K108" xr:uid="{B46F2A5A-C7CF-4586-AD9E-72DD6336D787}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="F001"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="INV001"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{1BA14173-4D80-4506-8BCE-4A5182E3754C}" name="Txn_ID"/>
     <tableColumn id="2" xr3:uid="{5301A2A3-CA10-4316-A91E-2F0CEFB6903A}" name="Fund_ID"/>
@@ -1516,7 +1527,7 @@
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2:F4"/>
     </sheetView>
@@ -1867,7 +1878,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3888,9 +3899,9 @@
   </sheetPr>
   <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3941,7 +3952,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -3976,7 +3987,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -4011,7 +4022,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -4046,7 +4057,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -4081,7 +4092,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -4116,7 +4127,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -4151,7 +4162,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -4186,7 +4197,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -4221,7 +4232,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -4256,7 +4267,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -4291,7 +4302,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -4326,7 +4337,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -4361,7 +4372,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -4431,7 +4442,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -4466,7 +4477,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -4501,7 +4512,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -4536,7 +4547,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -4606,7 +4617,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -4641,7 +4652,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -4676,7 +4687,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -4711,7 +4722,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -4746,7 +4757,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -4781,7 +4792,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -4816,7 +4827,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -4886,7 +4897,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>113</v>
       </c>
@@ -4921,7 +4932,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -4956,7 +4967,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -5026,7 +5037,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -5061,7 +5072,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -5096,7 +5107,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>120</v>
       </c>
@@ -5131,7 +5142,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>121</v>
       </c>
@@ -5166,7 +5177,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>122</v>
       </c>
@@ -5201,7 +5212,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>123</v>
       </c>
@@ -5236,7 +5247,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>124</v>
       </c>
@@ -5271,7 +5282,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>126</v>
       </c>
@@ -5306,7 +5317,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>128</v>
       </c>
@@ -5341,7 +5352,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>129</v>
       </c>
@@ -5376,7 +5387,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -5411,7 +5422,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>132</v>
       </c>
@@ -5481,7 +5492,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>134</v>
       </c>
@@ -5516,7 +5527,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>135</v>
       </c>
@@ -5551,7 +5562,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>136</v>
       </c>
@@ -5586,7 +5597,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>137</v>
       </c>
@@ -5621,7 +5632,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>139</v>
       </c>
@@ -5656,7 +5667,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>141</v>
       </c>
@@ -5691,7 +5702,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>142</v>
       </c>
@@ -5761,7 +5772,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>144</v>
       </c>
@@ -5796,7 +5807,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>145</v>
       </c>
@@ -5831,7 +5842,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>146</v>
       </c>
@@ -5866,7 +5877,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>147</v>
       </c>
@@ -5901,7 +5912,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>151</v>
       </c>
@@ -5936,7 +5947,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>152</v>
       </c>
@@ -6006,7 +6017,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>155</v>
       </c>
@@ -6041,7 +6052,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>157</v>
       </c>
@@ -6076,7 +6087,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>158</v>
       </c>
@@ -6111,7 +6122,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>159</v>
       </c>
@@ -6146,7 +6157,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>160</v>
       </c>
@@ -6181,7 +6192,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>162</v>
       </c>
@@ -6216,7 +6227,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>163</v>
       </c>
@@ -6251,7 +6262,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>164</v>
       </c>
@@ -6321,7 +6332,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>167</v>
       </c>
@@ -6356,7 +6367,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>168</v>
       </c>
@@ -6391,7 +6402,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>169</v>
       </c>
@@ -6426,7 +6437,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>170</v>
       </c>
@@ -6461,7 +6472,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>171</v>
       </c>
@@ -6496,7 +6507,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>172</v>
       </c>
@@ -6566,7 +6577,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>175</v>
       </c>
@@ -6601,7 +6612,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>176</v>
       </c>
@@ -6636,7 +6647,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>177</v>
       </c>
@@ -6702,7 +6713,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>179</v>
       </c>
@@ -6737,7 +6748,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>180</v>
       </c>
@@ -6772,7 +6783,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>181</v>
       </c>
@@ -6807,7 +6818,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>181</v>
       </c>
@@ -6842,7 +6853,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>182</v>
       </c>
@@ -6877,7 +6888,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>184</v>
       </c>
@@ -6912,7 +6923,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>185</v>
       </c>
@@ -6947,7 +6958,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>186</v>
       </c>
@@ -6982,7 +6993,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>188</v>
       </c>
@@ -7017,7 +7028,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>189</v>
       </c>
@@ -7052,7 +7063,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>190</v>
       </c>
@@ -7157,7 +7168,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>195</v>
       </c>
@@ -7192,7 +7203,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>196</v>
       </c>
@@ -7227,7 +7238,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>197</v>
       </c>
@@ -7297,7 +7308,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>200</v>
       </c>
@@ -7332,7 +7343,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>201</v>
       </c>
@@ -7367,7 +7378,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>202</v>
       </c>
@@ -7402,7 +7413,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>203</v>
       </c>
@@ -7437,7 +7448,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>205</v>
       </c>
@@ -7472,7 +7483,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>206</v>
       </c>
@@ -7507,7 +7518,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>207</v>
       </c>
@@ -7577,7 +7588,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -7612,7 +7623,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>210</v>
       </c>
@@ -7647,7 +7658,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>211</v>
       </c>
